--- a/Data_preparation/datasets/final_data/One_Stop_Systems_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/One_Stop_Systems_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,66 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -712,22 +652,22 @@
         <v>42369</v>
       </c>
       <c r="D2">
-        <v>27.125</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E2">
-        <v>25.34499931335449</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F2">
-        <v>27.125</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>22.22999954223633</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H2">
-        <v>134598631</v>
+        <v>24478838</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>3079407</v>
@@ -756,22 +696,22 @@
         <v>42735</v>
       </c>
       <c r="D3">
-        <v>534.967198865167</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E3">
-        <v>450.4078674316406</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F3">
-        <v>571.2069123366783</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>445.230765507139</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H3">
-        <v>1333460157</v>
+        <v>24478838</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>4297552</v>
@@ -800,22 +740,22 @@
         <v>42825</v>
       </c>
       <c r="D4">
-        <v>9.769573715804048</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E4">
-        <v>9.667807579040527</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F4">
-        <v>9.973106636344406</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>9.396430782995594</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H4">
-        <v>3006208000</v>
+        <v>24478838</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>6336338</v>
@@ -877,22 +817,22 @@
         <v>42916</v>
       </c>
       <c r="D5">
-        <v>804.4902529480636</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E5">
-        <v>793.3997192382812</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F5">
-        <v>875.2990450951361</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>749.0375843991515</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H5">
-        <v>275900103</v>
+        <v>24478838</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>7488424</v>
@@ -954,22 +894,22 @@
         <v>43008</v>
       </c>
       <c r="D6">
-        <v>16.30785379979687</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E6">
-        <v>16.63021850585938</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F6">
-        <v>17.91335631168335</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>16.30785379979687</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H6">
-        <v>118401578</v>
+        <v>24478838</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>6660614</v>
@@ -1037,22 +977,22 @@
         <v>43100</v>
       </c>
       <c r="D7">
-        <v>21.06097328157131</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E7">
-        <v>21.5913028717041</v>
+        <v>4.783999919891357</v>
       </c>
       <c r="F7">
-        <v>23.51893322585045</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>20.76122322733137</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H7">
-        <v>1299391231</v>
+        <v>24478838</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>4273136</v>
@@ -1132,22 +1072,22 @@
         <v>43190</v>
       </c>
       <c r="D8">
-        <v>15.95295863791121</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="E8">
-        <v>14.81924629211426</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F8">
-        <v>16.27687689615273</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="G8">
-        <v>13.44259525263616</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="H8">
-        <v>4500000193</v>
+        <v>24478838</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>54898461</v>
@@ -1245,22 +1185,22 @@
         <v>43281</v>
       </c>
       <c r="D9">
-        <v>32.36709687656226</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="E9">
-        <v>31.62302398681641</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="F9">
-        <v>33.33438902755955</v>
+        <v>4.75</v>
       </c>
       <c r="G9">
-        <v>30.02327147189045</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="H9">
-        <v>1853869000</v>
+        <v>24478838</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>53392348</v>
@@ -1358,22 +1298,22 @@
         <v>43373</v>
       </c>
       <c r="D10">
-        <v>118.8699784743474</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="E10">
-        <v>131.6345367431641</v>
+        <v>2.470000028610229</v>
       </c>
       <c r="F10">
-        <v>137.6179242105138</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="G10">
-        <v>98.52645983921131</v>
+        <v>2.25</v>
       </c>
       <c r="H10">
-        <v>193969420</v>
+        <v>24478838</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>47538661</v>
@@ -1471,22 +1411,22 @@
         <v>43465</v>
       </c>
       <c r="D11">
-        <v>178.7038649689565</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="E11">
-        <v>142.8035278320312</v>
+        <v>2.480000019073486</v>
       </c>
       <c r="F11">
-        <v>181.4961066283612</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="G11">
-        <v>142.8035278320312</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="H11">
-        <v>193969420</v>
+        <v>24478838</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>27517284</v>
@@ -1587,22 +1527,22 @@
         <v>43555</v>
       </c>
       <c r="D12">
-        <v>1096.205709613841</v>
+        <v>2.089999914169312</v>
       </c>
       <c r="E12">
-        <v>1205.027587890625</v>
+        <v>2.329999923706055</v>
       </c>
       <c r="F12">
-        <v>1294.880514908153</v>
+        <v>2.75</v>
       </c>
       <c r="G12">
-        <v>1035.305392413072</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="H12">
-        <v>104878138</v>
+        <v>24478838</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>29111347</v>
@@ -1703,22 +1643,22 @@
         <v>43646</v>
       </c>
       <c r="D13">
-        <v>40544.09822043826</v>
+        <v>1.730000019073486</v>
       </c>
       <c r="E13">
-        <v>38831.5703125</v>
+        <v>1.659999966621399</v>
       </c>
       <c r="F13">
-        <v>40715.35101123209</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="G13">
-        <v>37975.30635853087</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H13">
-        <v>5876745450</v>
+        <v>24478838</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>24573712</v>
@@ -1819,22 +1759,22 @@
         <v>43738</v>
       </c>
       <c r="D14">
-        <v>60.76406463044493</v>
+        <v>2.957000017166138</v>
       </c>
       <c r="E14">
-        <v>59.60836791992188</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="F14">
-        <v>61.14327406172586</v>
+        <v>3.25</v>
       </c>
       <c r="G14">
-        <v>56.1412984537168</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
-        <v>229140423</v>
+        <v>24478838</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>45696522</v>
@@ -1947,22 +1887,22 @@
         <v>43830</v>
       </c>
       <c r="D15">
-        <v>222.8461507933775</v>
+        <v>2.039999961853028</v>
       </c>
       <c r="E15">
-        <v>219.044937133789</v>
+        <v>2.730000019073486</v>
       </c>
       <c r="F15">
-        <v>252.7807083626373</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="G15">
-        <v>203.3649307879864</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="H15">
-        <v>80995217</v>
+        <v>24478838</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>32524949</v>
@@ -2063,22 +2003,22 @@
         <v>43921</v>
       </c>
       <c r="D16">
-        <v>12.41129859768217</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="E16">
-        <v>16.23237037658691</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="F16">
-        <v>17.16704825563687</v>
+        <v>1.879999995231628</v>
       </c>
       <c r="G16">
-        <v>12.05887897968325</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="H16">
-        <v>1299391231</v>
+        <v>24478838</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>23701618</v>
@@ -2179,22 +2119,22 @@
         <v>44012</v>
       </c>
       <c r="D17">
-        <v>970.3393129824782</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="E17">
-        <v>1088.628295898438</v>
+        <v>2.160000085830688</v>
       </c>
       <c r="F17">
-        <v>1118.200541627427</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="G17">
-        <v>950.0083940437976</v>
+        <v>1.807999968528748</v>
       </c>
       <c r="H17">
-        <v>1333460157</v>
+        <v>24478838</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>32476163</v>
@@ -2295,22 +2235,22 @@
         <v>44104</v>
       </c>
       <c r="D18">
-        <v>12.7733873356874</v>
+        <v>2.079999923706055</v>
       </c>
       <c r="E18">
-        <v>15.52035236358643</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="F18">
-        <v>17.30587870681586</v>
+        <v>2.484999895095825</v>
       </c>
       <c r="G18">
-        <v>12.68182262753309</v>
+        <v>2.079999923706055</v>
       </c>
       <c r="H18">
-        <v>4500000193</v>
+        <v>24478838</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>34918008</v>
@@ -2423,22 +2363,22 @@
         <v>44196</v>
       </c>
       <c r="D19">
-        <v>32.50755730601569</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="E19">
-        <v>31.25653076171875</v>
+        <v>3.75</v>
       </c>
       <c r="F19">
-        <v>32.99459606093095</v>
+        <v>4.980000019073486</v>
       </c>
       <c r="G19">
-        <v>30.77904021483708</v>
+        <v>3.609999895095825</v>
       </c>
       <c r="H19">
-        <v>219937482</v>
+        <v>24478838</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>66483632</v>
@@ -2551,22 +2491,22 @@
         <v>44286</v>
       </c>
       <c r="D20">
-        <v>2516.34996159507</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E20">
-        <v>2790.17041015625</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F20">
-        <v>2807.159270103477</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="G20">
-        <v>2503.838146397838</v>
+        <v>4.409999847412109</v>
       </c>
       <c r="H20">
-        <v>913159452</v>
+        <v>24478838</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>116715076</v>
@@ -2667,22 +2607,22 @@
         <v>44377</v>
       </c>
       <c r="D21">
-        <v>40.06459571156605</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="E21">
-        <v>40.04537963867188</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F21">
-        <v>40.5353766696543</v>
+        <v>6.189000129699707</v>
       </c>
       <c r="G21">
-        <v>36.25990124070713</v>
+        <v>4.775000095367432</v>
       </c>
       <c r="H21">
-        <v>219937482</v>
+        <v>24478838</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>107175303</v>
@@ -2783,22 +2723,22 @@
         <v>44469</v>
       </c>
       <c r="D22">
-        <v>51.72000122070312</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E22">
-        <v>45.22999954223633</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="F22">
-        <v>53.2400016784668</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="G22">
-        <v>43.54000091552734</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="H22">
-        <v>134598631</v>
+        <v>24478838</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>93703221</v>
@@ -2902,22 +2842,22 @@
         <v>44561</v>
       </c>
       <c r="D23">
-        <v>98.06110899770088</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="E23">
-        <v>84.43734741210938</v>
+        <v>4.429999828338623</v>
       </c>
       <c r="F23">
-        <v>98.06110899770088</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="G23">
-        <v>80.56356001156674</v>
+        <v>3.744999885559082</v>
       </c>
       <c r="H23">
-        <v>229140423</v>
+        <v>24478838</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>92396809</v>
@@ -3018,22 +2958,22 @@
         <v>44651</v>
       </c>
       <c r="D24">
-        <v>564.8420934999623</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E24">
-        <v>567.5840454101562</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F24">
-        <v>568.4980293802209</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="G24">
-        <v>487.1534560444658</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="H24">
-        <v>275900103</v>
+        <v>24478838</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>72114659</v>
@@ -3137,22 +3077,22 @@
         <v>44742</v>
       </c>
       <c r="D25">
-        <v>990.9535599144536</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="E25">
-        <v>932.830322265625</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="F25">
-        <v>1065.275076908038</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="G25">
-        <v>932.830322265625</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="H25">
-        <v>1333460157</v>
+        <v>24478838</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>78463319</v>
@@ -3265,22 +3205,22 @@
         <v>44834</v>
       </c>
       <c r="D26">
-        <v>3829.951036061672</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="E26">
-        <v>3718.19677734375</v>
+        <v>3.220000028610229</v>
       </c>
       <c r="F26">
-        <v>4026.941593801738</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="G26">
-        <v>3570.453859038701</v>
+        <v>2.960000038146973</v>
       </c>
       <c r="H26">
-        <v>933160187</v>
+        <v>24478838</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>64077075</v>
@@ -3393,22 +3333,22 @@
         <v>44926</v>
       </c>
       <c r="D27">
-        <v>17.67499923706055</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="E27">
-        <v>19.1200008392334</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="F27">
-        <v>19.76000022888184</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="G27">
-        <v>17.08499908447266</v>
+        <v>2.910000085830688</v>
       </c>
       <c r="H27">
-        <v>795535712</v>
+        <v>24478838</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>60297671</v>
@@ -3509,22 +3449,22 @@
         <v>45016</v>
       </c>
       <c r="D28">
-        <v>4646.163088703966</v>
+        <v>2.509999990463257</v>
       </c>
       <c r="E28">
-        <v>4397.0390625</v>
+        <v>2.470000028610229</v>
       </c>
       <c r="F28">
-        <v>4647.12125803552</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="G28">
-        <v>4224.568582820331</v>
+        <v>2.289999961853028</v>
       </c>
       <c r="H28">
-        <v>933160187</v>
+        <v>24478838</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>50490615</v>
@@ -3625,22 +3565,22 @@
         <v>45107</v>
       </c>
       <c r="D29">
-        <v>299.8867087280755</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="E29">
-        <v>279.6763610839844</v>
+        <v>2.839999914169312</v>
       </c>
       <c r="F29">
-        <v>311.3327623979251</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>274.7053735580706</v>
+        <v>2.75</v>
       </c>
       <c r="H29">
-        <v>193969420</v>
+        <v>24478838</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>58430672</v>
@@ -3741,22 +3681,22 @@
         <v>45199</v>
       </c>
       <c r="D30">
-        <v>1366.269412157012</v>
+        <v>1.860000014305115</v>
       </c>
       <c r="E30">
-        <v>1400.426147460938</v>
+        <v>2.029999971389771</v>
       </c>
       <c r="F30">
-        <v>1722.475366040805</v>
+        <v>2.190000057220459</v>
       </c>
       <c r="G30">
-        <v>1356.510344927319</v>
+        <v>1.800999999046326</v>
       </c>
       <c r="H30">
-        <v>134011000</v>
+        <v>24478838</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>38004594</v>
@@ -3857,22 +3797,22 @@
         <v>45291</v>
       </c>
       <c r="D31">
-        <v>124.5980016318655</v>
+        <v>2.140000104904175</v>
       </c>
       <c r="E31">
-        <v>132.1493988037109</v>
+        <v>2.089999914169312</v>
       </c>
       <c r="F31">
-        <v>136.1187273141222</v>
+        <v>2.25</v>
       </c>
       <c r="G31">
-        <v>122.5649354352075</v>
+        <v>1.789999961853027</v>
       </c>
       <c r="H31">
-        <v>229140423</v>
+        <v>24478838</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>43268505</v>
@@ -3973,22 +3913,22 @@
         <v>45382</v>
       </c>
       <c r="D32">
-        <v>4156.728619089413</v>
+        <v>3.25</v>
       </c>
       <c r="E32">
-        <v>4553.76318359375</v>
+        <v>2.839999914169312</v>
       </c>
       <c r="F32">
-        <v>5096.40944657156</v>
+        <v>3.5</v>
       </c>
       <c r="G32">
-        <v>3750.957352676668</v>
+        <v>2.545000076293945</v>
       </c>
       <c r="H32">
-        <v>175134528</v>
+        <v>24478838</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>67483418</v>
@@ -4089,22 +4029,22 @@
         <v>45473</v>
       </c>
       <c r="D33">
-        <v>2890.935410112718</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="E33">
-        <v>2691.009033203125</v>
+        <v>2.220000028610229</v>
       </c>
       <c r="F33">
-        <v>3014.889763796666</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="G33">
-        <v>2519.072349060875</v>
+        <v>2.160000085830688</v>
       </c>
       <c r="H33">
-        <v>104878138</v>
+        <v>24478838</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>50409464</v>
@@ -4205,22 +4145,22 @@
         <v>45565</v>
       </c>
       <c r="D34">
-        <v>31.23959479848472</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="E34">
-        <v>28.76222801208496</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="F34">
-        <v>31.50219696309808</v>
+        <v>2.880000114440918</v>
       </c>
       <c r="G34">
-        <v>28.63340577082776</v>
+        <v>2.220000028610229</v>
       </c>
       <c r="H34">
-        <v>1299391231</v>
+        <v>24478838</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>50279345</v>
@@ -4321,22 +4261,22 @@
         <v>45657</v>
       </c>
       <c r="D35">
-        <v>2476.994723535176</v>
+        <v>3.410000085830688</v>
       </c>
       <c r="E35">
-        <v>2384.00341796875</v>
+        <v>3.660000085830689</v>
       </c>
       <c r="F35">
-        <v>2758.415779854624</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="G35">
-        <v>2325.761495008725</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="H35">
-        <v>175134528</v>
+        <v>24478838</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>70733689</v>
@@ -4437,22 +4377,22 @@
         <v>45747</v>
       </c>
       <c r="D36">
-        <v>3590.70430246099</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="E36">
-        <v>3714.694091796875</v>
+        <v>2.309999942779541</v>
       </c>
       <c r="F36">
-        <v>3714.694091796875</v>
+        <v>2.466000080108643</v>
       </c>
       <c r="G36">
-        <v>3048.748932944461</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="H36">
-        <v>913159452</v>
+        <v>24478838</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>49469966</v>
@@ -4553,22 +4493,22 @@
         <v>45838</v>
       </c>
       <c r="D37">
-        <v>2937</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="E37">
-        <v>3025</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="F37">
-        <v>3125</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="G37">
-        <v>2890</v>
+        <v>3.528000116348267</v>
       </c>
       <c r="H37">
-        <v>52985470</v>
+        <v>24478838</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>76641763</v>
